--- a/CW2/wyniki.xlsx
+++ b/CW2/wyniki.xlsx
@@ -4,14 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27900" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,6 +24,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
   </si>
   <si>
     <t>iters</t>
@@ -32,15 +46,6 @@
   <si>
     <t>pc</t>
   </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
 </sst>
 </file>
 
@@ -49,7 +54,7 @@
   <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
       <charset val="238"/>
@@ -73,11 +78,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -86,7 +91,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -94,17 +99,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -114,7 +119,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -122,12 +127,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -136,18 +141,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -162,11 +167,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -461,34 +466,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
@@ -517,10 +523,34 @@
       <c r="J2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>50</v>
@@ -531,28 +561,52 @@
       <c r="D3" s="5">
         <v>50</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>100</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>100</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>300</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>10</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>70</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>0.2</v>
@@ -563,58 +617,106 @@
       <c r="D4" s="5">
         <v>0.1</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>0.6</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>0.1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>0.2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <v>0.2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>0.1</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0.01</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4">
+        <v>0.2</v>
+      </c>
+      <c r="N4">
+        <v>1E-3</v>
+      </c>
+      <c r="O4">
+        <v>1E-3</v>
+      </c>
+      <c r="P4">
+        <v>1E-3</v>
+      </c>
+      <c r="Q4">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="R4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
         <v>0.4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>0.2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>0.2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>0.6</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>0.1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>0.4</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <v>0.4</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
         <v>0.1</v>
       </c>
       <c r="J5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0.01</v>
+      </c>
+      <c r="L5">
+        <v>0.4</v>
+      </c>
+      <c r="M5">
+        <v>0.4</v>
+      </c>
+      <c r="N5">
+        <v>1E-3</v>
+      </c>
+      <c r="O5">
+        <v>1E-3</v>
+      </c>
+      <c r="P5">
+        <v>1E-3</v>
+      </c>
+      <c r="Q5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="R5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="B6">
         <v>107</v>
       </c>
@@ -639,8 +741,32 @@
       <c r="J6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>118</v>
+      </c>
+      <c r="L6">
+        <v>116</v>
+      </c>
+      <c r="M6">
+        <v>115</v>
+      </c>
+      <c r="N6">
+        <v>123</v>
+      </c>
+      <c r="O6">
+        <v>109</v>
+      </c>
+      <c r="P6">
+        <v>115</v>
+      </c>
+      <c r="Q6">
+        <v>113</v>
+      </c>
+      <c r="R6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="B7">
         <v>100</v>
       </c>
@@ -665,8 +791,32 @@
       <c r="J7">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>110</v>
+      </c>
+      <c r="L7">
+        <v>110</v>
+      </c>
+      <c r="M7">
+        <v>116</v>
+      </c>
+      <c r="N7">
+        <v>113</v>
+      </c>
+      <c r="O7">
+        <v>104</v>
+      </c>
+      <c r="P7">
+        <v>118</v>
+      </c>
+      <c r="Q7">
+        <v>107</v>
+      </c>
+      <c r="R7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="B8">
         <v>108</v>
       </c>
@@ -691,8 +841,32 @@
       <c r="J8">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>111</v>
+      </c>
+      <c r="L8">
+        <v>114</v>
+      </c>
+      <c r="M8">
+        <v>116</v>
+      </c>
+      <c r="N8">
+        <v>109</v>
+      </c>
+      <c r="O8">
+        <v>111</v>
+      </c>
+      <c r="P8">
+        <v>124</v>
+      </c>
+      <c r="Q8">
+        <v>111</v>
+      </c>
+      <c r="R8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="B9">
         <v>103</v>
       </c>
@@ -717,8 +891,32 @@
       <c r="J9">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>110</v>
+      </c>
+      <c r="L9">
+        <v>111</v>
+      </c>
+      <c r="M9">
+        <v>115</v>
+      </c>
+      <c r="N9">
+        <v>112</v>
+      </c>
+      <c r="O9">
+        <v>112</v>
+      </c>
+      <c r="P9">
+        <v>115</v>
+      </c>
+      <c r="Q9">
+        <v>114</v>
+      </c>
+      <c r="R9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10">
         <v>112</v>
       </c>
@@ -743,8 +941,32 @@
       <c r="J10">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>110</v>
+      </c>
+      <c r="L10">
+        <v>110</v>
+      </c>
+      <c r="M10">
+        <v>116</v>
+      </c>
+      <c r="N10">
+        <v>112</v>
+      </c>
+      <c r="O10">
+        <v>119</v>
+      </c>
+      <c r="P10">
+        <v>115</v>
+      </c>
+      <c r="Q10">
+        <v>117</v>
+      </c>
+      <c r="R10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="B11">
         <v>105</v>
       </c>
@@ -769,8 +991,32 @@
       <c r="J11">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>114</v>
+      </c>
+      <c r="L11">
+        <v>113</v>
+      </c>
+      <c r="M11">
+        <v>117</v>
+      </c>
+      <c r="N11">
+        <v>117</v>
+      </c>
+      <c r="O11">
+        <v>112</v>
+      </c>
+      <c r="P11">
+        <v>115</v>
+      </c>
+      <c r="Q11">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12">
         <v>107</v>
       </c>
@@ -795,8 +1041,32 @@
       <c r="J12">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>118</v>
+      </c>
+      <c r="L12">
+        <v>112</v>
+      </c>
+      <c r="M12">
+        <v>118</v>
+      </c>
+      <c r="N12">
+        <v>114</v>
+      </c>
+      <c r="O12">
+        <v>113</v>
+      </c>
+      <c r="P12">
+        <v>115</v>
+      </c>
+      <c r="Q12">
+        <v>110</v>
+      </c>
+      <c r="R12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="B13">
         <v>113</v>
       </c>
@@ -821,8 +1091,32 @@
       <c r="J13">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>115</v>
+      </c>
+      <c r="L13">
+        <v>106</v>
+      </c>
+      <c r="M13">
+        <v>110</v>
+      </c>
+      <c r="N13">
+        <v>116</v>
+      </c>
+      <c r="O13">
+        <v>114</v>
+      </c>
+      <c r="P13">
+        <v>118</v>
+      </c>
+      <c r="Q13">
+        <v>115</v>
+      </c>
+      <c r="R13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="B14">
         <v>100</v>
       </c>
@@ -847,8 +1141,32 @@
       <c r="J14">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>116</v>
+      </c>
+      <c r="L14">
+        <v>110</v>
+      </c>
+      <c r="M14">
+        <v>115</v>
+      </c>
+      <c r="N14">
+        <v>110</v>
+      </c>
+      <c r="O14">
+        <v>113</v>
+      </c>
+      <c r="P14">
+        <v>109</v>
+      </c>
+      <c r="Q14">
+        <v>110</v>
+      </c>
+      <c r="R14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="B15">
         <v>100</v>
       </c>
@@ -873,8 +1191,32 @@
       <c r="J15">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>108</v>
+      </c>
+      <c r="L15">
+        <v>115</v>
+      </c>
+      <c r="M15">
+        <v>114</v>
+      </c>
+      <c r="N15">
+        <v>110</v>
+      </c>
+      <c r="O15">
+        <v>106</v>
+      </c>
+      <c r="P15">
+        <v>114</v>
+      </c>
+      <c r="Q15">
+        <v>112</v>
+      </c>
+      <c r="R15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="B16">
         <v>96</v>
       </c>
@@ -899,8 +1241,32 @@
       <c r="J16">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="K16">
+        <v>111</v>
+      </c>
+      <c r="L16">
+        <v>108</v>
+      </c>
+      <c r="M16">
+        <v>121</v>
+      </c>
+      <c r="N16">
+        <v>111</v>
+      </c>
+      <c r="O16">
+        <v>108</v>
+      </c>
+      <c r="P16">
+        <v>110</v>
+      </c>
+      <c r="Q16">
+        <v>106</v>
+      </c>
+      <c r="R16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
       <c r="B17">
         <v>112</v>
       </c>
@@ -925,8 +1291,32 @@
       <c r="J17">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="K17">
+        <v>111</v>
+      </c>
+      <c r="L17">
+        <v>116</v>
+      </c>
+      <c r="M17">
+        <v>116</v>
+      </c>
+      <c r="N17">
+        <v>109</v>
+      </c>
+      <c r="O17">
+        <v>113</v>
+      </c>
+      <c r="P17">
+        <v>115</v>
+      </c>
+      <c r="Q17">
+        <v>114</v>
+      </c>
+      <c r="R17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18">
         <v>103</v>
       </c>
@@ -951,8 +1341,32 @@
       <c r="J18">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="K18">
+        <v>112</v>
+      </c>
+      <c r="L18">
+        <v>112</v>
+      </c>
+      <c r="M18">
+        <v>110</v>
+      </c>
+      <c r="N18">
+        <v>112</v>
+      </c>
+      <c r="O18">
+        <v>107</v>
+      </c>
+      <c r="P18">
+        <v>116</v>
+      </c>
+      <c r="Q18">
+        <v>110</v>
+      </c>
+      <c r="R18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19">
         <v>102</v>
       </c>
@@ -977,8 +1391,32 @@
       <c r="J19">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="K19">
+        <v>110</v>
+      </c>
+      <c r="L19">
+        <v>107</v>
+      </c>
+      <c r="M19">
+        <v>117</v>
+      </c>
+      <c r="N19">
+        <v>117</v>
+      </c>
+      <c r="O19">
+        <v>118</v>
+      </c>
+      <c r="P19">
+        <v>115</v>
+      </c>
+      <c r="Q19">
+        <v>104</v>
+      </c>
+      <c r="R19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20">
         <v>105</v>
       </c>
@@ -1003,8 +1441,32 @@
       <c r="J20">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="K20">
+        <v>113</v>
+      </c>
+      <c r="L20">
+        <v>118</v>
+      </c>
+      <c r="M20">
+        <v>118</v>
+      </c>
+      <c r="N20">
+        <v>120</v>
+      </c>
+      <c r="O20">
+        <v>106</v>
+      </c>
+      <c r="P20">
+        <v>118</v>
+      </c>
+      <c r="Q20">
+        <v>113</v>
+      </c>
+      <c r="R20">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
       <c r="B21">
         <v>115</v>
       </c>
@@ -1029,8 +1491,32 @@
       <c r="J21">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21">
+        <v>111</v>
+      </c>
+      <c r="L21">
+        <v>119</v>
+      </c>
+      <c r="M21">
+        <v>115</v>
+      </c>
+      <c r="N21">
+        <v>110</v>
+      </c>
+      <c r="O21">
+        <v>116</v>
+      </c>
+      <c r="P21">
+        <v>115</v>
+      </c>
+      <c r="Q21">
+        <v>108</v>
+      </c>
+      <c r="R21">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
       <c r="B22">
         <v>106</v>
       </c>
@@ -1055,8 +1541,32 @@
       <c r="J22">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="K22">
+        <v>113</v>
+      </c>
+      <c r="L22">
+        <v>115</v>
+      </c>
+      <c r="M22">
+        <v>116</v>
+      </c>
+      <c r="N22">
+        <v>116</v>
+      </c>
+      <c r="O22">
+        <v>117</v>
+      </c>
+      <c r="P22">
+        <v>118</v>
+      </c>
+      <c r="Q22">
+        <v>106</v>
+      </c>
+      <c r="R22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
       <c r="B23">
         <v>105</v>
       </c>
@@ -1081,8 +1591,32 @@
       <c r="J23">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="K23">
+        <v>116</v>
+      </c>
+      <c r="L23">
+        <v>112</v>
+      </c>
+      <c r="M23">
+        <v>116</v>
+      </c>
+      <c r="N23">
+        <v>112</v>
+      </c>
+      <c r="O23">
+        <v>107</v>
+      </c>
+      <c r="P23">
+        <v>118</v>
+      </c>
+      <c r="Q23">
+        <v>112</v>
+      </c>
+      <c r="R23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
       <c r="B24">
         <v>110</v>
       </c>
@@ -1107,8 +1641,32 @@
       <c r="J24">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="K24">
+        <v>118</v>
+      </c>
+      <c r="L24">
+        <v>111</v>
+      </c>
+      <c r="M24">
+        <v>121</v>
+      </c>
+      <c r="N24">
+        <v>113</v>
+      </c>
+      <c r="O24">
+        <v>111</v>
+      </c>
+      <c r="P24">
+        <v>120</v>
+      </c>
+      <c r="Q24">
+        <v>107</v>
+      </c>
+      <c r="R24">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="B25">
         <v>102</v>
       </c>
@@ -1133,8 +1691,32 @@
       <c r="J25">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="K25">
+        <v>112</v>
+      </c>
+      <c r="L25">
+        <v>116</v>
+      </c>
+      <c r="M25">
+        <v>118</v>
+      </c>
+      <c r="N25">
+        <v>113</v>
+      </c>
+      <c r="O25">
+        <v>110</v>
+      </c>
+      <c r="P25">
+        <v>111</v>
+      </c>
+      <c r="Q25">
+        <v>109</v>
+      </c>
+      <c r="R25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
       <c r="B26">
         <v>104</v>
       </c>
@@ -1159,8 +1741,32 @@
       <c r="J26">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="K26">
+        <v>112</v>
+      </c>
+      <c r="L26">
+        <v>115</v>
+      </c>
+      <c r="M26">
+        <v>116</v>
+      </c>
+      <c r="N26">
+        <v>118</v>
+      </c>
+      <c r="O26">
+        <v>103</v>
+      </c>
+      <c r="P26">
+        <v>120</v>
+      </c>
+      <c r="Q26">
+        <v>117</v>
+      </c>
+      <c r="R26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
       <c r="B27">
         <v>103</v>
       </c>
@@ -1185,8 +1791,32 @@
       <c r="J27">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="K27">
+        <v>109</v>
+      </c>
+      <c r="L27">
+        <v>114</v>
+      </c>
+      <c r="M27">
+        <v>116</v>
+      </c>
+      <c r="N27">
+        <v>109</v>
+      </c>
+      <c r="O27">
+        <v>110</v>
+      </c>
+      <c r="P27">
+        <v>112</v>
+      </c>
+      <c r="Q27">
+        <v>112</v>
+      </c>
+      <c r="R27">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28">
         <v>102</v>
       </c>
@@ -1211,8 +1841,32 @@
       <c r="J28">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="K28">
+        <v>110</v>
+      </c>
+      <c r="L28">
+        <v>114</v>
+      </c>
+      <c r="M28">
+        <v>114</v>
+      </c>
+      <c r="N28">
+        <v>113</v>
+      </c>
+      <c r="O28">
+        <v>112</v>
+      </c>
+      <c r="P28">
+        <v>113</v>
+      </c>
+      <c r="Q28">
+        <v>114</v>
+      </c>
+      <c r="R28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
       <c r="B29">
         <v>113</v>
       </c>
@@ -1237,8 +1891,32 @@
       <c r="J29">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="K29">
+        <v>113</v>
+      </c>
+      <c r="L29">
+        <v>113</v>
+      </c>
+      <c r="M29">
+        <v>111</v>
+      </c>
+      <c r="N29">
+        <v>117</v>
+      </c>
+      <c r="O29">
+        <v>114</v>
+      </c>
+      <c r="P29">
+        <v>116</v>
+      </c>
+      <c r="Q29">
+        <v>114</v>
+      </c>
+      <c r="R29">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
       <c r="B30">
         <v>109</v>
       </c>
@@ -1263,14 +1941,38 @@
       <c r="J30">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="K30">
+        <v>112</v>
+      </c>
+      <c r="L30">
+        <v>113</v>
+      </c>
+      <c r="M30">
+        <v>118</v>
+      </c>
+      <c r="N30">
+        <v>112</v>
+      </c>
+      <c r="O30">
+        <v>108</v>
+      </c>
+      <c r="P30">
+        <v>118</v>
+      </c>
+      <c r="Q30">
+        <v>105</v>
+      </c>
+      <c r="R30">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
       <c r="B31">
-        <f>AVERAGE(B6:B30)</f>
+        <f t="shared" ref="B31:R31" si="0">AVERAGE(B6:B30)</f>
         <v>105.68</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:J31" si="0">AVERAGE(C6:C30)</f>
+        <f t="shared" si="0"/>
         <v>109.52</v>
       </c>
       <c r="D31">
@@ -1301,16 +2003,48 @@
         <f t="shared" si="0"/>
         <v>110.28</v>
       </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>112.52</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>112.8</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>115.8</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>113.52</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>110.92</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>115.72</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>110.8</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>119.52</v>
+      </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <f>MAX(B6:J30)</f>
-        <v>121</v>
+        <f>MAX(B6:Q30)</f>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1320,9 +2054,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1332,8 +2067,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>